--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_lignite.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_lignite.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -555,9 +563,6 @@
   </si>
   <si>
     <t>Cost</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <r>
@@ -720,6 +725,10 @@
   <si>
     <t>energy_power_ultra_supercritical_lignite.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -730,7 +739,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -862,11 +871,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1502,7 +1506,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1513,52 +1517,52 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1625,7 +1629,7 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1669,7 +1673,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1716,7 +1720,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1729,7 +1733,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1738,31 +1742,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2006,80 +2010,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>4241800</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2275,7 +2214,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2712,45 +2651,45 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>90</v>
@@ -2759,7 +2698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2768,29 +2707,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="117" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="118"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="119"/>
       <c r="C10" s="120"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="119" t="s">
         <v>93</v>
@@ -2799,33 +2738,33 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="119"/>
       <c r="C12" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="119"/>
       <c r="C13" s="122" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="119" t="s">
         <v>98</v>
@@ -2834,49 +2773,49 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="119"/>
       <c r="C17" s="124" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="119"/>
       <c r="C18" s="125" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="119"/>
       <c r="C19" s="126" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="127"/>
       <c r="C20" s="128" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="127"/>
       <c r="C21" s="129" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="127"/>
       <c r="C22" s="130" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="127"/>
       <c r="C23" s="131" t="s">
         <v>106</v>
@@ -2885,49 +2824,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
     <col min="9" max="9" width="45" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="162" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -2935,7 +2869,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -2943,7 +2877,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="165"/>
       <c r="C4" s="166"/>
       <c r="D4" s="166"/>
@@ -2951,7 +2885,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="168"/>
       <c r="C5" s="169"/>
       <c r="D5" s="169"/>
@@ -2959,10 +2893,10 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -2973,7 +2907,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="149"/>
       <c r="C8" s="15" t="s">
         <v>32</v>
@@ -2994,7 +2928,7 @@
       </c>
       <c r="J8" s="146"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="28"/>
@@ -3005,7 +2939,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
         <v>116</v>
@@ -3018,7 +2952,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>33</v>
@@ -3037,7 +2971,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -3057,7 +2991,7 @@
       <c r="J12" s="147"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3077,7 +3011,7 @@
       <c r="J13" s="147"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>38</v>
@@ -3097,7 +3031,7 @@
       <c r="J14" s="147"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>10</v>
@@ -3117,7 +3051,7 @@
       <c r="J15" s="147"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -3137,7 +3071,7 @@
       <c r="J16" s="147"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3157,7 +3091,7 @@
       <c r="J17" s="147"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -3179,7 +3113,7 @@
       </c>
       <c r="J18" s="147"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>44</v>
@@ -3200,7 +3134,7 @@
       </c>
       <c r="J19" s="147"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="37"/>
       <c r="C20" s="32"/>
       <c r="D20" s="144"/>
@@ -3211,7 +3145,7 @@
       <c r="I20" s="32"/>
       <c r="J20" s="147"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="14" t="s">
         <v>119</v>
@@ -3224,7 +3158,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="147"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>45</v>
@@ -3242,11 +3176,11 @@
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="157" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J22" s="147"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>46</v>
@@ -3267,7 +3201,7 @@
       </c>
       <c r="J23" s="147"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>12</v>
@@ -3288,7 +3222,7 @@
       </c>
       <c r="J24" s="147"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>47</v>
@@ -3309,7 +3243,7 @@
       </c>
       <c r="J25" s="147"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
@@ -3331,7 +3265,7 @@
       </c>
       <c r="J26" s="147"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3353,7 +3287,7 @@
       </c>
       <c r="J27" s="147"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>50</v>
@@ -3374,7 +3308,7 @@
       </c>
       <c r="J28" s="147"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>53</v>
@@ -3395,7 +3329,7 @@
       </c>
       <c r="J29" s="147"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>40</v>
@@ -3414,7 +3348,7 @@
       </c>
       <c r="J30" s="147"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="32"/>
       <c r="D31" s="144"/>
@@ -3425,7 +3359,7 @@
       <c r="I31" s="32"/>
       <c r="J31" s="147"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="14" t="s">
         <v>8</v>
@@ -3438,7 +3372,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="147"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>39</v>
@@ -3460,7 +3394,7 @@
       </c>
       <c r="J33" s="147"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>51</v>
@@ -3482,7 +3416,7 @@
       </c>
       <c r="J34" s="147"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>52</v>
@@ -3500,11 +3434,11 @@
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="157" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" s="147"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>37</v>
@@ -3523,7 +3457,7 @@
       </c>
       <c r="J36" s="147"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>66</v>
@@ -3540,7 +3474,7 @@
       </c>
       <c r="J37" s="147"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>67</v>
@@ -3557,7 +3491,7 @@
       </c>
       <c r="J38" s="147"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>69</v>
@@ -3574,7 +3508,7 @@
       </c>
       <c r="J39" s="147"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="45" t="s">
         <v>70</v>
@@ -3591,7 +3525,7 @@
       </c>
       <c r="J40" s="147"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="45" t="s">
         <v>68</v>
@@ -3608,7 +3542,7 @@
       </c>
       <c r="J41" s="147"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="99" t="s">
         <v>87</v>
@@ -3625,7 +3559,7 @@
       </c>
       <c r="J42" s="147"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="99" t="s">
         <v>88</v>
@@ -3642,7 +3576,7 @@
       </c>
       <c r="J43" s="147"/>
     </row>
-    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
@@ -3659,43 +3593,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>431800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>4241800</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3710,31 +3607,31 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="71" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
     <col min="2" max="2" width="4" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="71" customWidth="1"/>
-    <col min="7" max="7" width="3.25" style="71" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="71" customWidth="1"/>
-    <col min="9" max="9" width="2.375" style="71" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="72" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="72" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="72" customWidth="1"/>
-    <col min="13" max="13" width="3.25" style="72" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="72" customWidth="1"/>
-    <col min="15" max="15" width="2.25" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="72" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="72" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="72" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="72" customWidth="1"/>
     <col min="16" max="16" width="10" style="72" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="72" customWidth="1"/>
-    <col min="18" max="18" width="91.125" style="71" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="71"/>
+    <col min="17" max="17" width="2.7109375" style="72" customWidth="1"/>
+    <col min="18" max="18" width="91.140625" style="71" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3753,7 +3650,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="74"/>
     </row>
-    <row r="3" spans="2:18" s="21" customFormat="1">
+    <row r="3" spans="2:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="137" t="s">
         <v>107</v>
@@ -3785,10 +3682,10 @@
       </c>
       <c r="Q3" s="138"/>
       <c r="R3" s="137" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -3807,7 +3704,7 @@
       <c r="Q4" s="139"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
         <v>116</v>
@@ -3828,7 +3725,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="70"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76"/>
       <c r="C6" s="79" t="s">
         <v>29</v>
@@ -3854,7 +3751,7 @@
       <c r="Q6" s="109"/>
       <c r="R6" s="105"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="76"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -3873,7 +3770,7 @@
       <c r="Q7" s="109"/>
       <c r="R7" s="105"/>
     </row>
-    <row r="8" spans="2:18" ht="16" thickBot="1">
+    <row r="8" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="76"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
@@ -3894,7 +3791,7 @@
       <c r="Q8" s="109"/>
       <c r="R8" s="30"/>
     </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="76"/>
       <c r="C9" s="87" t="s">
         <v>1</v>
@@ -3923,7 +3820,7 @@
       <c r="Q9" s="104"/>
       <c r="R9" s="105"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="76"/>
       <c r="C10" s="89" t="s">
         <v>6</v>
@@ -3955,7 +3852,7 @@
       <c r="Q10" s="104"/>
       <c r="R10" s="105"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="76"/>
       <c r="C11" s="143" t="s">
         <v>118</v>
@@ -3983,10 +3880,10 @@
       </c>
       <c r="Q11" s="109"/>
       <c r="R11" s="151" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="76"/>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
@@ -4007,7 +3904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="16" thickBot="1">
+    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="76"/>
       <c r="C13" s="13" t="s">
         <v>117</v>
@@ -4028,7 +3925,7 @@
       <c r="Q13" s="109"/>
       <c r="R13" s="105"/>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="76"/>
       <c r="C14" s="132" t="s">
         <v>108</v>
@@ -4054,7 +3951,7 @@
       <c r="Q14" s="109"/>
       <c r="R14" s="105"/>
     </row>
-    <row r="15" spans="2:18" ht="16" thickBot="1">
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="76"/>
       <c r="C15" s="92" t="s">
         <v>9</v>
@@ -4088,10 +3985,10 @@
       <c r="P15" s="109"/>
       <c r="Q15" s="109"/>
       <c r="R15" s="156" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="16" thickBot="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="76"/>
       <c r="C16" s="134" t="s">
         <v>109</v>
@@ -4116,10 +4013,10 @@
       <c r="P16" s="107"/>
       <c r="Q16" s="107"/>
       <c r="R16" s="156" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="76"/>
       <c r="C17" s="134" t="s">
         <v>110</v>
@@ -4143,10 +4040,10 @@
       <c r="P17" s="107"/>
       <c r="Q17" s="107"/>
       <c r="R17" s="156" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="76"/>
       <c r="C18" s="87" t="s">
         <v>89</v>
@@ -4172,7 +4069,7 @@
       <c r="Q18" s="107"/>
       <c r="R18" s="30"/>
     </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="76"/>
       <c r="C19" s="87" t="s">
         <v>89</v>
@@ -4197,7 +4094,7 @@
       <c r="Q19" s="107"/>
       <c r="R19" s="105"/>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="76"/>
       <c r="C20" s="87" t="s">
         <v>111</v>
@@ -4222,10 +4119,10 @@
       <c r="Q20" s="109"/>
       <c r="R20" s="105"/>
     </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="76"/>
       <c r="C21" s="152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
@@ -4264,11 +4161,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4283,21 +4175,21 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="47" customWidth="1"/>
-    <col min="11" max="11" width="83.875" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="1" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="83.85546875" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4309,7 +4201,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>22</v>
@@ -4323,7 +4215,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4335,7 +4227,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>30</v>
@@ -4351,19 +4243,19 @@
         <v>31</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4375,7 +4267,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="66"/>
       <c r="D7" s="59"/>
@@ -4389,17 +4281,17 @@
         <v>76</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" s="97" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="68" t="s">
         <v>72</v>
@@ -4413,7 +4305,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="54"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="155" t="s">
         <v>6</v>
@@ -4427,7 +4319,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -4439,7 +4331,7 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="68"/>
       <c r="D11" s="60"/>
@@ -4453,17 +4345,17 @@
         <v>71</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="68" t="s">
         <v>72</v>
@@ -4477,7 +4369,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="68" t="s">
         <v>86</v>
@@ -4491,7 +4383,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="66" t="s">
         <v>85</v>
@@ -4505,7 +4397,7 @@
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -4517,7 +4409,7 @@
       <c r="J15" s="55"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="64"/>
       <c r="D16" s="59"/>
@@ -4535,13 +4427,13 @@
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K16" s="63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="68" t="s">
         <v>72</v>
@@ -4555,7 +4447,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="68"/>
       <c r="D18" s="59"/>
@@ -4567,7 +4459,7 @@
       <c r="J18" s="55"/>
       <c r="K18" s="59"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -4579,7 +4471,7 @@
       <c r="J19" s="67"/>
       <c r="K19" s="59"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -4599,7 +4491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="66" t="s">
         <v>65</v>
@@ -4626,11 +4518,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G11:H11 H16" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4642,15 +4529,15 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="153" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="153"/>
+    <col min="1" max="1" width="5.42578125" style="153" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="153" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16" thickBot="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="158"/>
       <c r="C2" s="159"/>
       <c r="D2" s="159"/>
@@ -4667,13 +4554,13 @@
       <c r="O2" s="159"/>
       <c r="P2" s="159"/>
     </row>
-    <row r="3" spans="2:16" s="21" customFormat="1">
+    <row r="3" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="149"/>
       <c r="C3" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4688,7 +4575,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="160"/>
       <c r="C4" s="161"/>
       <c r="D4" s="161"/>
@@ -4705,7 +4592,7 @@
       <c r="O4" s="161"/>
       <c r="P4" s="161"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="160"/>
       <c r="C5" s="161"/>
       <c r="D5" s="161"/>
@@ -4722,7 +4609,7 @@
       <c r="O5" s="161"/>
       <c r="P5" s="161"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="160"/>
       <c r="C6" s="161" t="s">
         <v>78</v>
@@ -4741,10 +4628,10 @@
       <c r="O6" s="161"/>
       <c r="P6" s="161"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="160"/>
       <c r="C7" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="161"/>
@@ -4760,7 +4647,7 @@
       <c r="O7" s="161"/>
       <c r="P7" s="161"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="160"/>
       <c r="C8" s="161"/>
       <c r="D8" s="161"/>
@@ -4777,7 +4664,7 @@
       <c r="O8" s="161"/>
       <c r="P8" s="161"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="160"/>
       <c r="C9" s="161"/>
       <c r="D9" s="161"/>
@@ -4794,7 +4681,7 @@
       <c r="O9" s="161"/>
       <c r="P9" s="161"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="160"/>
       <c r="C10" s="161"/>
       <c r="D10" s="161"/>
@@ -4811,7 +4698,7 @@
       <c r="O10" s="161"/>
       <c r="P10" s="161"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="160"/>
       <c r="C11" s="161"/>
       <c r="D11" s="161"/>
@@ -4828,7 +4715,7 @@
       <c r="O11" s="161"/>
       <c r="P11" s="161"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="160"/>
       <c r="C12" s="161"/>
       <c r="D12" s="161"/>
@@ -4845,7 +4732,7 @@
       <c r="O12" s="161"/>
       <c r="P12" s="161"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="160"/>
       <c r="C13" s="161"/>
       <c r="D13" s="161"/>
@@ -4862,7 +4749,7 @@
       <c r="O13" s="161"/>
       <c r="P13" s="161"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="160"/>
       <c r="C14" s="161"/>
       <c r="D14" s="161"/>
@@ -4879,7 +4766,7 @@
       <c r="O14" s="161"/>
       <c r="P14" s="161"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="160"/>
       <c r="C15" s="161"/>
       <c r="D15" s="161"/>
@@ -4896,7 +4783,7 @@
       <c r="O15" s="161"/>
       <c r="P15" s="161"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="160"/>
       <c r="C16" s="161"/>
       <c r="D16" s="161"/>
@@ -4913,7 +4800,7 @@
       <c r="O16" s="161"/>
       <c r="P16" s="161"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="160"/>
       <c r="C17" s="161"/>
       <c r="D17" s="161"/>
@@ -4930,7 +4817,7 @@
       <c r="O17" s="161"/>
       <c r="P17" s="161"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="160"/>
       <c r="C18" s="161"/>
       <c r="D18" s="161"/>
@@ -4947,7 +4834,7 @@
       <c r="O18" s="161"/>
       <c r="P18" s="161"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="160"/>
       <c r="C19" s="161"/>
       <c r="D19" s="161"/>
@@ -4964,7 +4851,7 @@
       <c r="O19" s="161"/>
       <c r="P19" s="161"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="160"/>
       <c r="C20" s="161"/>
       <c r="D20" s="161"/>
@@ -4981,7 +4868,7 @@
       <c r="O20" s="161"/>
       <c r="P20" s="161"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="160"/>
       <c r="C21" s="161"/>
       <c r="D21" s="161"/>
@@ -4998,7 +4885,7 @@
       <c r="O21" s="161"/>
       <c r="P21" s="161"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="160"/>
       <c r="C22" s="161"/>
       <c r="D22" s="161"/>
@@ -5015,7 +4902,7 @@
       <c r="O22" s="161"/>
       <c r="P22" s="161"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="160"/>
       <c r="C23" s="161"/>
       <c r="D23" s="161"/>
@@ -5032,7 +4919,7 @@
       <c r="O23" s="161"/>
       <c r="P23" s="161"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="160"/>
       <c r="C24" s="161"/>
       <c r="D24" s="161"/>
@@ -5049,7 +4936,7 @@
       <c r="O24" s="161"/>
       <c r="P24" s="161"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="160"/>
       <c r="C25" s="161"/>
       <c r="D25" s="161"/>
@@ -5057,7 +4944,7 @@
         <v>1500</v>
       </c>
       <c r="F25" s="161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="161"/>
       <c r="H25" s="161"/>
@@ -5070,7 +4957,7 @@
       <c r="O25" s="161"/>
       <c r="P25" s="161"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="160"/>
       <c r="C26" s="161"/>
       <c r="D26" s="161"/>
@@ -5087,7 +4974,7 @@
       <c r="O26" s="161"/>
       <c r="P26" s="161"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="160"/>
       <c r="C27" s="161"/>
       <c r="D27" s="161"/>
@@ -5104,7 +4991,7 @@
       <c r="O27" s="161"/>
       <c r="P27" s="161"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="160"/>
       <c r="C28" s="161"/>
       <c r="D28" s="161"/>
@@ -5121,7 +5008,7 @@
       <c r="O28" s="161"/>
       <c r="P28" s="161"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="160"/>
       <c r="C29" s="161"/>
       <c r="D29" s="161"/>
@@ -5138,7 +5025,7 @@
       <c r="O29" s="161"/>
       <c r="P29" s="161"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="160"/>
       <c r="C30" s="161"/>
       <c r="D30" s="161"/>
@@ -5155,7 +5042,7 @@
       <c r="O30" s="161"/>
       <c r="P30" s="161"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="160"/>
       <c r="C31" s="161"/>
       <c r="D31" s="161"/>
@@ -5172,7 +5059,7 @@
       <c r="O31" s="161"/>
       <c r="P31" s="161"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="160"/>
       <c r="C32" s="161"/>
       <c r="D32" s="161"/>
@@ -5189,7 +5076,7 @@
       <c r="O32" s="161"/>
       <c r="P32" s="161"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="160"/>
       <c r="C33" s="161"/>
       <c r="D33" s="161"/>
@@ -5206,7 +5093,7 @@
       <c r="O33" s="161"/>
       <c r="P33" s="161"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="160"/>
       <c r="C34" s="161"/>
       <c r="D34" s="161"/>
@@ -5223,7 +5110,7 @@
       <c r="O34" s="161"/>
       <c r="P34" s="161"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="160"/>
       <c r="C35" s="161"/>
       <c r="D35" s="161"/>
@@ -5240,7 +5127,7 @@
       <c r="O35" s="161"/>
       <c r="P35" s="161"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="160"/>
       <c r="C36" s="161"/>
       <c r="D36" s="161"/>
@@ -5257,7 +5144,7 @@
       <c r="O36" s="161"/>
       <c r="P36" s="161"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="160"/>
       <c r="C37" s="161"/>
       <c r="D37" s="161"/>
@@ -5274,7 +5161,7 @@
       <c r="O37" s="161"/>
       <c r="P37" s="161"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="160"/>
       <c r="C38" s="161"/>
       <c r="D38" s="161"/>
@@ -5291,10 +5178,10 @@
       <c r="O38" s="161"/>
       <c r="P38" s="161"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="160"/>
       <c r="C39" s="161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="161"/>
       <c r="E39" s="161"/>
@@ -5310,7 +5197,7 @@
       <c r="O39" s="161"/>
       <c r="P39" s="161"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="160"/>
       <c r="C40" s="161"/>
       <c r="D40" s="161"/>
@@ -5327,7 +5214,7 @@
       <c r="O40" s="161"/>
       <c r="P40" s="161"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="160"/>
       <c r="C41" s="161"/>
       <c r="D41" s="161"/>
@@ -5344,7 +5231,7 @@
       <c r="O41" s="161"/>
       <c r="P41" s="161"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="160"/>
       <c r="C42" s="161"/>
       <c r="D42" s="161"/>
@@ -5361,7 +5248,7 @@
       <c r="O42" s="161"/>
       <c r="P42" s="161"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="160"/>
       <c r="C43" s="161"/>
       <c r="D43" s="161"/>
@@ -5378,7 +5265,7 @@
       <c r="O43" s="161"/>
       <c r="P43" s="161"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="160"/>
       <c r="C44" s="161"/>
       <c r="D44" s="161"/>
@@ -5395,7 +5282,7 @@
       <c r="O44" s="161"/>
       <c r="P44" s="161"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="160"/>
       <c r="C45" s="161"/>
       <c r="D45" s="161"/>
@@ -5412,7 +5299,7 @@
       <c r="O45" s="161"/>
       <c r="P45" s="161"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="160"/>
       <c r="C46" s="161"/>
       <c r="D46" s="161"/>
@@ -5429,7 +5316,7 @@
       <c r="O46" s="161"/>
       <c r="P46" s="161"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="160"/>
       <c r="C47" s="161"/>
       <c r="D47" s="161"/>
@@ -5446,7 +5333,7 @@
       <c r="O47" s="161"/>
       <c r="P47" s="161"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="160"/>
       <c r="C48" s="161"/>
       <c r="D48" s="161"/>
@@ -5463,7 +5350,7 @@
       <c r="O48" s="161"/>
       <c r="P48" s="161"/>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="160"/>
       <c r="C49" s="161"/>
       <c r="D49" s="161"/>
@@ -5480,7 +5367,7 @@
       <c r="O49" s="161"/>
       <c r="P49" s="161"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="160"/>
       <c r="C50" s="161"/>
       <c r="D50" s="161"/>
@@ -5497,7 +5384,7 @@
       <c r="O50" s="161"/>
       <c r="P50" s="161"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="160"/>
       <c r="C51" s="161"/>
       <c r="D51" s="161" t="s">
@@ -5507,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="161"/>
       <c r="H51" s="161"/>
@@ -5520,7 +5407,7 @@
       <c r="O51" s="161"/>
       <c r="P51" s="161"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="160"/>
       <c r="C52" s="161"/>
       <c r="D52" s="161"/>
@@ -5537,7 +5424,7 @@
       <c r="O52" s="161"/>
       <c r="P52" s="161"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="160"/>
       <c r="C53" s="161"/>
       <c r="D53" s="161"/>
@@ -5554,7 +5441,7 @@
       <c r="O53" s="161"/>
       <c r="P53" s="161"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="160"/>
       <c r="C54" s="161"/>
       <c r="D54" s="161"/>
@@ -5571,7 +5458,7 @@
       <c r="O54" s="161"/>
       <c r="P54" s="161"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="160"/>
       <c r="C55" s="161"/>
       <c r="D55" s="161"/>
@@ -5588,7 +5475,7 @@
       <c r="O55" s="161"/>
       <c r="P55" s="161"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="160"/>
       <c r="C56" s="161"/>
       <c r="D56" s="161"/>
@@ -5605,7 +5492,7 @@
       <c r="O56" s="161"/>
       <c r="P56" s="161"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="160"/>
       <c r="C57" s="161"/>
       <c r="D57" s="161"/>
@@ -5622,7 +5509,7 @@
       <c r="O57" s="161"/>
       <c r="P57" s="161"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="160"/>
       <c r="C58" s="161"/>
       <c r="D58" s="161"/>
@@ -5639,7 +5526,7 @@
       <c r="O58" s="161"/>
       <c r="P58" s="161"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="160"/>
       <c r="C59" s="161"/>
       <c r="D59" s="161"/>
@@ -5656,7 +5543,7 @@
       <c r="O59" s="161"/>
       <c r="P59" s="161"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="160"/>
       <c r="C60" s="161"/>
       <c r="D60" s="161"/>
@@ -5673,7 +5560,7 @@
       <c r="O60" s="161"/>
       <c r="P60" s="161"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="160"/>
       <c r="C61" s="161"/>
       <c r="D61" s="161"/>
@@ -5690,7 +5577,7 @@
       <c r="O61" s="161"/>
       <c r="P61" s="161"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62" s="160"/>
       <c r="C62" s="161"/>
       <c r="D62" s="161"/>
@@ -5707,7 +5594,7 @@
       <c r="O62" s="161"/>
       <c r="P62" s="161"/>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" s="160"/>
       <c r="C63" s="161"/>
       <c r="D63" s="161"/>
@@ -5724,7 +5611,7 @@
       <c r="O63" s="161"/>
       <c r="P63" s="161"/>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64" s="160"/>
       <c r="C64" s="161"/>
       <c r="D64" s="161"/>
@@ -5741,7 +5628,7 @@
       <c r="O64" s="161"/>
       <c r="P64" s="161"/>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="160"/>
       <c r="C65" s="161"/>
       <c r="D65" s="161"/>
@@ -5758,7 +5645,7 @@
       <c r="O65" s="161"/>
       <c r="P65" s="161"/>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="160"/>
       <c r="C66" s="161"/>
       <c r="D66" s="161"/>
@@ -5775,7 +5662,7 @@
       <c r="O66" s="161"/>
       <c r="P66" s="161"/>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="160"/>
       <c r="C67" s="161"/>
       <c r="D67" s="161"/>
@@ -5792,7 +5679,7 @@
       <c r="O67" s="161"/>
       <c r="P67" s="161"/>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="160"/>
       <c r="C68" s="161"/>
       <c r="D68" s="161"/>
@@ -5809,7 +5696,7 @@
       <c r="O68" s="161"/>
       <c r="P68" s="161"/>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="160"/>
       <c r="C69" s="161"/>
       <c r="D69" s="161"/>
@@ -5826,7 +5713,7 @@
       <c r="O69" s="161"/>
       <c r="P69" s="161"/>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="160"/>
       <c r="C70" s="161"/>
       <c r="D70" s="161"/>
@@ -5843,7 +5730,7 @@
       <c r="O70" s="161"/>
       <c r="P70" s="161"/>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B71" s="160"/>
       <c r="C71" s="161"/>
       <c r="D71" s="161"/>
@@ -5860,7 +5747,7 @@
       <c r="O71" s="161"/>
       <c r="P71" s="161"/>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B72" s="160"/>
       <c r="C72" s="161"/>
       <c r="D72" s="161"/>
@@ -5877,7 +5764,7 @@
       <c r="O72" s="161"/>
       <c r="P72" s="161"/>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B73" s="160"/>
       <c r="C73" s="161"/>
       <c r="D73" s="161"/>
@@ -5894,17 +5781,17 @@
       <c r="O73" s="161"/>
       <c r="P73" s="161"/>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B74" s="160"/>
       <c r="C74" s="161"/>
       <c r="D74" s="161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" s="161">
         <v>35</v>
       </c>
       <c r="F74" s="161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G74" s="161"/>
       <c r="H74" s="161"/>
@@ -5917,11 +5804,11 @@
       <c r="O74" s="161"/>
       <c r="P74" s="161"/>
     </row>
-    <row r="75" spans="2:16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B75" s="160"/>
       <c r="C75" s="161"/>
       <c r="D75" s="161" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" s="161"/>
       <c r="F75" s="161"/>
@@ -5936,7 +5823,7 @@
       <c r="O75" s="161"/>
       <c r="P75" s="161"/>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B76" s="160"/>
       <c r="C76" s="161"/>
       <c r="D76" s="161"/>
@@ -5953,7 +5840,7 @@
       <c r="O76" s="161"/>
       <c r="P76" s="161"/>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B77" s="160"/>
       <c r="C77" s="161"/>
       <c r="D77" s="161"/>
@@ -5970,7 +5857,7 @@
       <c r="O77" s="161"/>
       <c r="P77" s="161"/>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B78" s="160"/>
       <c r="C78" s="161"/>
       <c r="D78" s="161"/>
@@ -5987,7 +5874,7 @@
       <c r="O78" s="161"/>
       <c r="P78" s="161"/>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="160"/>
       <c r="C79" s="161"/>
       <c r="D79" s="161"/>
@@ -6004,7 +5891,7 @@
       <c r="O79" s="161"/>
       <c r="P79" s="161"/>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B80" s="160"/>
       <c r="C80" s="161"/>
       <c r="D80" s="161"/>
@@ -6021,7 +5908,7 @@
       <c r="O80" s="161"/>
       <c r="P80" s="161"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="160"/>
       <c r="C81" s="161"/>
       <c r="D81" s="161"/>
@@ -6038,7 +5925,7 @@
       <c r="O81" s="161"/>
       <c r="P81" s="161"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82" s="160"/>
       <c r="C82" s="161"/>
       <c r="D82" s="161"/>
@@ -6055,7 +5942,7 @@
       <c r="O82" s="161"/>
       <c r="P82" s="161"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83" s="160"/>
       <c r="C83" s="161"/>
       <c r="D83" s="161"/>
@@ -6072,7 +5959,7 @@
       <c r="O83" s="161"/>
       <c r="P83" s="161"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="160"/>
       <c r="C84" s="161"/>
       <c r="D84" s="161"/>
@@ -6089,7 +5976,7 @@
       <c r="O84" s="161"/>
       <c r="P84" s="161"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85" s="160"/>
       <c r="C85" s="161"/>
       <c r="D85" s="161"/>
@@ -6106,7 +5993,7 @@
       <c r="O85" s="161"/>
       <c r="P85" s="161"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86" s="160"/>
       <c r="C86" s="161"/>
       <c r="D86" s="161"/>
@@ -6123,7 +6010,7 @@
       <c r="O86" s="161"/>
       <c r="P86" s="161"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="160"/>
       <c r="C87" s="161"/>
       <c r="D87" s="161"/>
@@ -6140,7 +6027,7 @@
       <c r="O87" s="161"/>
       <c r="P87" s="161"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88" s="160"/>
       <c r="C88" s="161"/>
       <c r="D88" s="161"/>
@@ -6157,7 +6044,7 @@
       <c r="O88" s="161"/>
       <c r="P88" s="161"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="160"/>
       <c r="C89" s="161"/>
       <c r="D89" s="161"/>
@@ -6174,7 +6061,7 @@
       <c r="O89" s="161"/>
       <c r="P89" s="161"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="160"/>
       <c r="C90" s="161" t="s">
         <v>80</v>
@@ -6193,10 +6080,10 @@
       <c r="O90" s="161"/>
       <c r="P90" s="161"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="160"/>
       <c r="C91" s="161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D91" s="161"/>
       <c r="E91" s="161"/>
@@ -6212,7 +6099,7 @@
       <c r="O91" s="161"/>
       <c r="P91" s="161"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="160"/>
       <c r="C92" s="161"/>
       <c r="D92" s="161"/>
@@ -6229,7 +6116,7 @@
       <c r="O92" s="161"/>
       <c r="P92" s="161"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93" s="160"/>
       <c r="C93" s="161"/>
       <c r="D93" s="161"/>
@@ -6237,7 +6124,7 @@
         <v>1600</v>
       </c>
       <c r="F93" s="161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G93" s="161"/>
       <c r="H93" s="161"/>
@@ -6250,7 +6137,7 @@
       <c r="O93" s="161"/>
       <c r="P93" s="161"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="160"/>
       <c r="C94" s="161"/>
       <c r="D94" s="161"/>
@@ -6267,7 +6154,7 @@
       <c r="O94" s="161"/>
       <c r="P94" s="161"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B95" s="160"/>
       <c r="C95" s="161"/>
       <c r="D95" s="161"/>
@@ -6284,7 +6171,7 @@
       <c r="O95" s="161"/>
       <c r="P95" s="161"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="160"/>
       <c r="C96" s="161"/>
       <c r="D96" s="161"/>
@@ -6301,7 +6188,7 @@
       <c r="O96" s="161"/>
       <c r="P96" s="161"/>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97" s="160"/>
       <c r="C97" s="161"/>
       <c r="D97" s="161"/>
@@ -6318,7 +6205,7 @@
       <c r="O97" s="161"/>
       <c r="P97" s="161"/>
     </row>
-    <row r="98" spans="2:16">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98" s="160"/>
       <c r="C98" s="161"/>
       <c r="D98" s="161"/>
@@ -6335,7 +6222,7 @@
       <c r="O98" s="161"/>
       <c r="P98" s="161"/>
     </row>
-    <row r="99" spans="2:16">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B99" s="160"/>
       <c r="C99" s="161"/>
       <c r="D99" s="161"/>
@@ -6352,7 +6239,7 @@
       <c r="O99" s="161"/>
       <c r="P99" s="161"/>
     </row>
-    <row r="100" spans="2:16">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" s="160"/>
       <c r="C100" s="161"/>
       <c r="D100" s="161"/>
@@ -6369,7 +6256,7 @@
       <c r="O100" s="161"/>
       <c r="P100" s="161"/>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101" s="160"/>
       <c r="C101" s="161"/>
       <c r="D101" s="161"/>
@@ -6386,7 +6273,7 @@
       <c r="O101" s="161"/>
       <c r="P101" s="161"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B102" s="160"/>
       <c r="C102" s="161"/>
       <c r="D102" s="161"/>
@@ -6403,7 +6290,7 @@
       <c r="O102" s="161"/>
       <c r="P102" s="161"/>
     </row>
-    <row r="103" spans="2:16">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B103" s="160"/>
       <c r="C103" s="161"/>
       <c r="D103" s="161"/>
@@ -6420,7 +6307,7 @@
       <c r="O103" s="161"/>
       <c r="P103" s="161"/>
     </row>
-    <row r="104" spans="2:16">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B104" s="160"/>
       <c r="C104" s="161"/>
       <c r="D104" s="161"/>
@@ -6437,7 +6324,7 @@
       <c r="O104" s="161"/>
       <c r="P104" s="161"/>
     </row>
-    <row r="105" spans="2:16">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B105" s="160"/>
       <c r="C105" s="161"/>
       <c r="D105" s="161"/>
@@ -6454,7 +6341,7 @@
       <c r="O105" s="161"/>
       <c r="P105" s="161"/>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106" s="160"/>
       <c r="C106" s="161"/>
       <c r="D106" s="161"/>
@@ -6471,7 +6358,7 @@
       <c r="O106" s="161"/>
       <c r="P106" s="161"/>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="160"/>
       <c r="C107" s="161"/>
       <c r="D107" s="161"/>
@@ -6488,7 +6375,7 @@
       <c r="O107" s="161"/>
       <c r="P107" s="161"/>
     </row>
-    <row r="108" spans="2:16">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108" s="160"/>
       <c r="C108" s="161"/>
       <c r="D108" s="161"/>
@@ -6505,7 +6392,7 @@
       <c r="O108" s="161"/>
       <c r="P108" s="161"/>
     </row>
-    <row r="109" spans="2:16">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B109" s="160"/>
       <c r="C109" s="161"/>
       <c r="D109" s="161"/>
@@ -6522,7 +6409,7 @@
       <c r="O109" s="161"/>
       <c r="P109" s="161"/>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110" s="160"/>
       <c r="C110" s="161"/>
       <c r="D110" s="161"/>
@@ -6539,7 +6426,7 @@
       <c r="O110" s="161"/>
       <c r="P110" s="161"/>
     </row>
-    <row r="111" spans="2:16">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B111" s="160"/>
       <c r="C111" s="161"/>
       <c r="D111" s="161"/>
@@ -6556,7 +6443,7 @@
       <c r="O111" s="161"/>
       <c r="P111" s="161"/>
     </row>
-    <row r="112" spans="2:16">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112" s="160"/>
       <c r="C112" s="161" t="s">
         <v>73</v>
@@ -6575,10 +6462,10 @@
       <c r="O112" s="161"/>
       <c r="P112" s="161"/>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B113" s="160"/>
       <c r="C113" s="161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" s="161"/>
       <c r="E113" s="161"/>
@@ -6594,7 +6481,7 @@
       <c r="O113" s="161"/>
       <c r="P113" s="161"/>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B114" s="160"/>
       <c r="C114" s="161"/>
       <c r="D114" s="161"/>
@@ -6611,7 +6498,7 @@
       <c r="O114" s="161"/>
       <c r="P114" s="161"/>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B115" s="160"/>
       <c r="C115" s="161"/>
       <c r="D115" s="161"/>
@@ -6628,7 +6515,7 @@
       <c r="O115" s="161"/>
       <c r="P115" s="161"/>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B116" s="160"/>
       <c r="C116" s="161"/>
       <c r="D116" s="161"/>
@@ -6645,7 +6532,7 @@
       <c r="O116" s="161"/>
       <c r="P116" s="161"/>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B117" s="160"/>
       <c r="C117" s="161"/>
       <c r="D117" s="161"/>
@@ -6662,7 +6549,7 @@
       <c r="O117" s="161"/>
       <c r="P117" s="161"/>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B118" s="160"/>
       <c r="C118" s="161"/>
       <c r="D118" s="161"/>
@@ -6679,7 +6566,7 @@
       <c r="O118" s="161"/>
       <c r="P118" s="161"/>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B119" s="160"/>
       <c r="C119" s="161"/>
       <c r="D119" s="161"/>
@@ -6696,7 +6583,7 @@
       <c r="O119" s="161"/>
       <c r="P119" s="161"/>
     </row>
-    <row r="120" spans="2:16">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B120" s="160"/>
       <c r="C120" s="161"/>
       <c r="D120" s="161"/>
@@ -6713,7 +6600,7 @@
       <c r="O120" s="161"/>
       <c r="P120" s="161"/>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B121" s="160"/>
       <c r="C121" s="161"/>
       <c r="D121" s="161"/>
@@ -6730,7 +6617,7 @@
       <c r="O121" s="161"/>
       <c r="P121" s="161"/>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B122" s="160"/>
       <c r="C122" s="161"/>
       <c r="D122" s="161"/>
@@ -6747,7 +6634,7 @@
       <c r="O122" s="161"/>
       <c r="P122" s="161"/>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B123" s="160"/>
       <c r="C123" s="161"/>
       <c r="D123" s="161"/>
@@ -6764,7 +6651,7 @@
       <c r="O123" s="161"/>
       <c r="P123" s="161"/>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B124" s="160"/>
       <c r="C124" s="161"/>
       <c r="D124" s="161"/>
@@ -6772,7 +6659,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G124" s="161"/>
       <c r="H124" s="161"/>
@@ -6785,7 +6672,7 @@
       <c r="O124" s="161"/>
       <c r="P124" s="161"/>
     </row>
-    <row r="125" spans="2:16">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B125" s="160"/>
       <c r="C125" s="161"/>
       <c r="D125" s="161"/>
@@ -6793,7 +6680,7 @@
         <v>1400</v>
       </c>
       <c r="F125" s="161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G125" s="161"/>
       <c r="H125" s="161"/>
@@ -6806,7 +6693,7 @@
       <c r="O125" s="161"/>
       <c r="P125" s="161"/>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B126" s="160"/>
       <c r="C126" s="161"/>
       <c r="D126" s="161"/>
@@ -6823,7 +6710,7 @@
       <c r="O126" s="161"/>
       <c r="P126" s="161"/>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B127" s="160"/>
       <c r="C127" s="161"/>
       <c r="D127" s="161"/>
@@ -6840,7 +6727,7 @@
       <c r="O127" s="161"/>
       <c r="P127" s="161"/>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B128" s="160"/>
       <c r="C128" s="161"/>
       <c r="D128" s="161"/>
@@ -6857,7 +6744,7 @@
       <c r="O128" s="161"/>
       <c r="P128" s="161"/>
     </row>
-    <row r="129" spans="2:16">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B129" s="160"/>
       <c r="C129" s="161"/>
       <c r="D129" s="161"/>
@@ -6874,7 +6761,7 @@
       <c r="O129" s="161"/>
       <c r="P129" s="161"/>
     </row>
-    <row r="130" spans="2:16">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B130" s="160"/>
       <c r="C130" s="161"/>
       <c r="D130" s="161"/>
@@ -6891,7 +6778,7 @@
       <c r="O130" s="161"/>
       <c r="P130" s="161"/>
     </row>
-    <row r="131" spans="2:16">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B131" s="160"/>
       <c r="C131" s="161"/>
       <c r="D131" s="161"/>
@@ -6908,7 +6795,7 @@
       <c r="O131" s="161"/>
       <c r="P131" s="161"/>
     </row>
-    <row r="132" spans="2:16">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B132" s="160"/>
       <c r="C132" s="161"/>
       <c r="D132" s="161"/>
@@ -6925,7 +6812,7 @@
       <c r="O132" s="161"/>
       <c r="P132" s="161"/>
     </row>
-    <row r="133" spans="2:16">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B133" s="160"/>
       <c r="C133" s="161"/>
       <c r="D133" s="161"/>
@@ -6942,7 +6829,7 @@
       <c r="O133" s="161"/>
       <c r="P133" s="161"/>
     </row>
-    <row r="134" spans="2:16">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B134" s="160"/>
       <c r="C134" s="161"/>
       <c r="D134" s="161"/>
@@ -6959,7 +6846,7 @@
       <c r="O134" s="161"/>
       <c r="P134" s="161"/>
     </row>
-    <row r="135" spans="2:16">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B135" s="160"/>
       <c r="C135" s="161"/>
       <c r="D135" s="161"/>
@@ -6976,7 +6863,7 @@
       <c r="O135" s="161"/>
       <c r="P135" s="161"/>
     </row>
-    <row r="136" spans="2:16">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B136" s="160"/>
       <c r="C136" s="161"/>
       <c r="D136" s="161"/>
@@ -6993,7 +6880,7 @@
       <c r="O136" s="161"/>
       <c r="P136" s="161"/>
     </row>
-    <row r="137" spans="2:16">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B137" s="160"/>
       <c r="C137" s="161"/>
       <c r="D137" s="161"/>
@@ -7010,7 +6897,7 @@
       <c r="O137" s="161"/>
       <c r="P137" s="161"/>
     </row>
-    <row r="138" spans="2:16">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B138" s="160"/>
       <c r="C138" s="161"/>
       <c r="D138" s="161"/>
@@ -7027,7 +6914,7 @@
       <c r="O138" s="161"/>
       <c r="P138" s="161"/>
     </row>
-    <row r="139" spans="2:16">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B139" s="160"/>
       <c r="C139" s="161"/>
       <c r="D139" s="161"/>
@@ -7044,7 +6931,7 @@
       <c r="O139" s="161"/>
       <c r="P139" s="161"/>
     </row>
-    <row r="140" spans="2:16">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B140" s="160"/>
       <c r="C140" s="161"/>
       <c r="D140" s="161"/>
@@ -7061,7 +6948,7 @@
       <c r="O140" s="161"/>
       <c r="P140" s="161"/>
     </row>
-    <row r="141" spans="2:16">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B141" s="160"/>
       <c r="C141" s="161"/>
       <c r="D141" s="161"/>
@@ -7078,7 +6965,7 @@
       <c r="O141" s="161"/>
       <c r="P141" s="161"/>
     </row>
-    <row r="142" spans="2:16">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B142" s="160"/>
       <c r="C142" s="161"/>
       <c r="D142" s="161"/>
@@ -7095,7 +6982,7 @@
       <c r="O142" s="161"/>
       <c r="P142" s="161"/>
     </row>
-    <row r="143" spans="2:16">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B143" s="160"/>
       <c r="C143" s="161"/>
       <c r="D143" s="161"/>
@@ -7112,7 +6999,7 @@
       <c r="O143" s="161"/>
       <c r="P143" s="161"/>
     </row>
-    <row r="144" spans="2:16">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B144" s="160"/>
       <c r="C144" s="161"/>
       <c r="D144" s="161"/>
@@ -7129,7 +7016,7 @@
       <c r="O144" s="161"/>
       <c r="P144" s="161"/>
     </row>
-    <row r="145" spans="2:16">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B145" s="160"/>
       <c r="C145" s="161"/>
       <c r="D145" s="161"/>
@@ -7150,10 +7037,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_lignite.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_lignite.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C683977-864C-DA4F-AB09-33214634D0C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -313,9 +320,6 @@
   </si>
   <si>
     <t>input.lignite</t>
-  </si>
-  <si>
-    <t>input.torrified_biomass_pellets</t>
   </si>
   <si>
     <r>
@@ -729,17 +733,20 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>input.torrefied_biomass_pellets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -849,6 +856,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,6 +864,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,6 +872,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,6 +880,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,6 +888,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,17 +896,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -902,12 +917,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2014,6 +2031,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2035,7 +2055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2073,7 +2099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2111,7 +2143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2149,7 +2187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2187,7 +2231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2647,58 +2697,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>20</v>
@@ -2707,118 +2757,118 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="118"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="119"/>
       <c r="C10" s="120"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="121" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="119"/>
       <c r="C12" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="119"/>
       <c r="C13" s="122" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="119"/>
       <c r="C14" s="120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="123" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="119"/>
       <c r="C17" s="124" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="119"/>
       <c r="C18" s="125" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="119"/>
       <c r="C19" s="126" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="127"/>
       <c r="C20" s="128" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="127"/>
       <c r="C21" s="129" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="127"/>
       <c r="C22" s="130" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="127"/>
       <c r="C23" s="131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2828,40 +2878,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
     <col min="9" max="9" width="45" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="163"/>
       <c r="D2" s="163"/>
@@ -2869,7 +2919,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="165"/>
       <c r="C3" s="166"/>
       <c r="D3" s="166"/>
@@ -2877,7 +2927,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="165"/>
       <c r="C4" s="166"/>
       <c r="D4" s="166"/>
@@ -2885,7 +2935,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="30" customHeight="1">
       <c r="B5" s="168"/>
       <c r="C5" s="169"/>
       <c r="D5" s="169"/>
@@ -2893,10 +2943,10 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="35"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -2907,7 +2957,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="149"/>
       <c r="C8" s="15" t="s">
         <v>32</v>
@@ -2928,7 +2978,7 @@
       </c>
       <c r="J8" s="146"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="28"/>
@@ -2939,10 +2989,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="14"/>
@@ -2952,7 +3002,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="33" t="s">
         <v>33</v>
@@ -2971,7 +3021,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -2991,7 +3041,7 @@
       <c r="J12" s="147"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>36</v>
@@ -3011,7 +3061,7 @@
       <c r="J13" s="147"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>38</v>
@@ -3031,7 +3081,7 @@
       <c r="J14" s="147"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>10</v>
@@ -3051,7 +3101,7 @@
       <c r="J15" s="147"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>41</v>
@@ -3071,7 +3121,7 @@
       <c r="J16" s="147"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>42</v>
@@ -3091,7 +3141,7 @@
       <c r="J17" s="147"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>43</v>
@@ -3113,7 +3163,7 @@
       </c>
       <c r="J18" s="147"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="33" t="s">
         <v>44</v>
@@ -3134,7 +3184,7 @@
       </c>
       <c r="J19" s="147"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="37"/>
       <c r="C20" s="32"/>
       <c r="D20" s="144"/>
@@ -3145,10 +3195,10 @@
       <c r="I20" s="32"/>
       <c r="J20" s="147"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="144"/>
       <c r="E21" s="148"/>
@@ -3158,7 +3208,7 @@
       <c r="I21" s="32"/>
       <c r="J21" s="147"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>45</v>
@@ -3176,11 +3226,11 @@
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J22" s="147"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>46</v>
@@ -3201,7 +3251,7 @@
       </c>
       <c r="J23" s="147"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>12</v>
@@ -3222,7 +3272,7 @@
       </c>
       <c r="J24" s="147"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>47</v>
@@ -3243,7 +3293,7 @@
       </c>
       <c r="J25" s="147"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>48</v>
@@ -3265,7 +3315,7 @@
       </c>
       <c r="J26" s="147"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3287,7 +3337,7 @@
       </c>
       <c r="J27" s="147"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>50</v>
@@ -3308,7 +3358,7 @@
       </c>
       <c r="J28" s="147"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>53</v>
@@ -3329,7 +3379,7 @@
       </c>
       <c r="J29" s="147"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>40</v>
@@ -3348,7 +3398,7 @@
       </c>
       <c r="J30" s="147"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11">
       <c r="B31" s="37"/>
       <c r="C31" s="32"/>
       <c r="D31" s="144"/>
@@ -3359,7 +3409,7 @@
       <c r="I31" s="32"/>
       <c r="J31" s="147"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="14" t="s">
         <v>8</v>
@@ -3372,7 +3422,7 @@
       <c r="I32" s="32"/>
       <c r="J32" s="147"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>39</v>
@@ -3394,7 +3444,7 @@
       </c>
       <c r="J33" s="147"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>51</v>
@@ -3416,7 +3466,7 @@
       </c>
       <c r="J34" s="147"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="33" t="s">
         <v>52</v>
@@ -3434,11 +3484,11 @@
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="157" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J35" s="147"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="33" t="s">
         <v>37</v>
@@ -3457,7 +3507,7 @@
       </c>
       <c r="J36" s="147"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>66</v>
@@ -3474,7 +3524,7 @@
       </c>
       <c r="J37" s="147"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>67</v>
@@ -3491,7 +3541,7 @@
       </c>
       <c r="J38" s="147"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>69</v>
@@ -3508,7 +3558,7 @@
       </c>
       <c r="J39" s="147"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
       <c r="C40" s="45" t="s">
         <v>70</v>
@@ -3525,7 +3575,7 @@
       </c>
       <c r="J40" s="147"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="37"/>
       <c r="C41" s="45" t="s">
         <v>68</v>
@@ -3542,7 +3592,7 @@
       </c>
       <c r="J41" s="147"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="37"/>
       <c r="C42" s="99" t="s">
         <v>87</v>
@@ -3559,10 +3609,10 @@
       </c>
       <c r="J42" s="147"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="37"/>
       <c r="C43" s="99" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="100">
@@ -3576,7 +3626,7 @@
       </c>
       <c r="J43" s="147"/>
     </row>
-    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
@@ -3597,8 +3647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:R21"/>
@@ -3607,31 +3657,31 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="71" customWidth="1"/>
     <col min="2" max="2" width="4" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="71" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="71" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="72" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="72" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="72" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="72" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="72" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="71" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="71" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="72" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="72" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="72" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="72" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" style="72" customWidth="1"/>
     <col min="16" max="16" width="10" style="72" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" style="72" customWidth="1"/>
-    <col min="18" max="18" width="91.140625" style="71" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="71"/>
+    <col min="17" max="17" width="2.6640625" style="72" customWidth="1"/>
+    <col min="18" max="18" width="91.1640625" style="71" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3650,10 +3700,10 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="74"/>
     </row>
-    <row r="3" spans="2:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="137" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3662,7 +3712,7 @@
       </c>
       <c r="G3" s="137"/>
       <c r="H3" s="137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="137"/>
       <c r="J3" s="138" t="s">
@@ -3682,10 +3732,10 @@
       </c>
       <c r="Q3" s="138"/>
       <c r="R3" s="137" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -3704,10 +3754,10 @@
       <c r="Q4" s="139"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="76"/>
       <c r="C5" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3725,7 +3775,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="70"/>
     </row>
-    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="76"/>
       <c r="C6" s="79" t="s">
         <v>29</v>
@@ -3751,7 +3801,7 @@
       <c r="Q6" s="109"/>
       <c r="R6" s="105"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18">
       <c r="B7" s="76"/>
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
@@ -3770,7 +3820,7 @@
       <c r="Q7" s="109"/>
       <c r="R7" s="105"/>
     </row>
-    <row r="8" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="17" thickBot="1">
       <c r="B8" s="76"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
@@ -3791,7 +3841,7 @@
       <c r="Q8" s="109"/>
       <c r="R8" s="30"/>
     </row>
-    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="17" thickBot="1">
       <c r="B9" s="76"/>
       <c r="C9" s="87" t="s">
         <v>1</v>
@@ -3820,7 +3870,7 @@
       <c r="Q9" s="104"/>
       <c r="R9" s="105"/>
     </row>
-    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="17" thickBot="1">
       <c r="B10" s="76"/>
       <c r="C10" s="89" t="s">
         <v>6</v>
@@ -3852,10 +3902,10 @@
       <c r="Q10" s="104"/>
       <c r="R10" s="105"/>
     </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="17" thickBot="1">
       <c r="B11" s="76"/>
       <c r="C11" s="143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="82"/>
       <c r="E11" s="82"/>
@@ -3880,10 +3930,10 @@
       </c>
       <c r="Q11" s="109"/>
       <c r="R11" s="151" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="76"/>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
@@ -3904,10 +3954,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="76"/>
       <c r="C13" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3925,10 +3975,10 @@
       <c r="Q13" s="109"/>
       <c r="R13" s="105"/>
     </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="76"/>
       <c r="C14" s="132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3951,7 +4001,7 @@
       <c r="Q14" s="109"/>
       <c r="R14" s="105"/>
     </row>
-    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="76"/>
       <c r="C15" s="92" t="s">
         <v>9</v>
@@ -3959,7 +4009,7 @@
       <c r="D15" s="92"/>
       <c r="E15" s="92"/>
       <c r="F15" s="135" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="142"/>
       <c r="H15" s="91">
@@ -3985,13 +4035,13 @@
       <c r="P15" s="109"/>
       <c r="Q15" s="109"/>
       <c r="R15" s="156" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="76"/>
       <c r="C16" s="134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -4013,18 +4063,18 @@
       <c r="P16" s="107"/>
       <c r="Q16" s="107"/>
       <c r="R16" s="156" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="76"/>
       <c r="C17" s="134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="136" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="136"/>
       <c r="H17" s="93">
@@ -4040,13 +4090,13 @@
       <c r="P17" s="107"/>
       <c r="Q17" s="107"/>
       <c r="R17" s="156" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="76"/>
       <c r="C18" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="95"/>
       <c r="E18" s="95"/>
@@ -4069,15 +4119,15 @@
       <c r="Q18" s="107"/>
       <c r="R18" s="30"/>
     </row>
-    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="76"/>
       <c r="C19" s="87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
       <c r="F19" s="135" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="142"/>
       <c r="H19" s="115">
@@ -4094,10 +4144,10 @@
       <c r="Q19" s="107"/>
       <c r="R19" s="105"/>
     </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="76"/>
       <c r="C20" s="87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
@@ -4119,15 +4169,15 @@
       <c r="Q20" s="109"/>
       <c r="R20" s="105"/>
     </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="76"/>
       <c r="C21" s="152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
       <c r="F21" s="133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="120"/>
       <c r="H21" s="96">
@@ -4157,7 +4207,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R12" r:id="rId1"/>
+    <hyperlink ref="R12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4165,8 +4215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
@@ -4175,21 +4225,21 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="83.85546875" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="46"/>
+    <col min="1" max="2" width="3.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="47" customWidth="1"/>
+    <col min="11" max="11" width="83.83203125" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4201,7 +4251,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>22</v>
@@ -4215,7 +4265,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4227,7 +4277,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>30</v>
@@ -4243,19 +4293,19 @@
         <v>31</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4267,7 +4317,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="51"/>
       <c r="C7" s="66"/>
       <c r="D7" s="59"/>
@@ -4281,17 +4331,17 @@
         <v>76</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K7" s="97" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="51"/>
       <c r="C8" s="68" t="s">
         <v>72</v>
@@ -4305,7 +4355,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="54"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="51"/>
       <c r="C9" s="155" t="s">
         <v>6</v>
@@ -4319,7 +4369,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="51"/>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -4331,7 +4381,7 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="34">
       <c r="B11" s="51"/>
       <c r="C11" s="68"/>
       <c r="D11" s="60"/>
@@ -4345,17 +4395,17 @@
         <v>71</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="51"/>
       <c r="C12" s="68" t="s">
         <v>72</v>
@@ -4369,7 +4419,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="63"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="51"/>
       <c r="C13" s="68" t="s">
         <v>86</v>
@@ -4383,7 +4433,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="51"/>
       <c r="C14" s="66" t="s">
         <v>85</v>
@@ -4397,7 +4447,7 @@
       <c r="J14" s="55"/>
       <c r="K14" s="63"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -4409,7 +4459,7 @@
       <c r="J15" s="55"/>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="51"/>
       <c r="C16" s="64"/>
       <c r="D16" s="59"/>
@@ -4427,13 +4477,13 @@
       </c>
       <c r="I16" s="54"/>
       <c r="J16" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K16" s="63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="51"/>
       <c r="C17" s="68" t="s">
         <v>72</v>
@@ -4447,7 +4497,7 @@
       <c r="J17" s="55"/>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="51"/>
       <c r="C18" s="68"/>
       <c r="D18" s="59"/>
@@ -4459,7 +4509,7 @@
       <c r="J18" s="55"/>
       <c r="K18" s="59"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="51"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -4471,7 +4521,7 @@
       <c r="J19" s="67"/>
       <c r="K19" s="59"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="51"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -4491,7 +4541,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="51"/>
       <c r="C21" s="66" t="s">
         <v>65</v>
@@ -4509,9 +4559,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
-    <hyperlink ref="K11" r:id="rId2"/>
-    <hyperlink ref="K16" r:id="rId3"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="K16" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4522,22 +4572,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:P145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="153" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="153" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="153"/>
+    <col min="1" max="1" width="5.5" style="153" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="153" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
       <c r="B2" s="158"/>
       <c r="C2" s="159"/>
       <c r="D2" s="159"/>
@@ -4554,13 +4604,13 @@
       <c r="O2" s="159"/>
       <c r="P2" s="159"/>
     </row>
-    <row r="3" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="21" customFormat="1">
       <c r="B3" s="149"/>
       <c r="C3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4575,7 +4625,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16">
       <c r="B4" s="160"/>
       <c r="C4" s="161"/>
       <c r="D4" s="161"/>
@@ -4592,7 +4642,7 @@
       <c r="O4" s="161"/>
       <c r="P4" s="161"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16">
       <c r="B5" s="160"/>
       <c r="C5" s="161"/>
       <c r="D5" s="161"/>
@@ -4609,7 +4659,7 @@
       <c r="O5" s="161"/>
       <c r="P5" s="161"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16">
       <c r="B6" s="160"/>
       <c r="C6" s="161" t="s">
         <v>78</v>
@@ -4628,10 +4678,10 @@
       <c r="O6" s="161"/>
       <c r="P6" s="161"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16">
       <c r="B7" s="160"/>
       <c r="C7" s="161" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="161"/>
       <c r="E7" s="161"/>
@@ -4647,7 +4697,7 @@
       <c r="O7" s="161"/>
       <c r="P7" s="161"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16">
       <c r="B8" s="160"/>
       <c r="C8" s="161"/>
       <c r="D8" s="161"/>
@@ -4664,7 +4714,7 @@
       <c r="O8" s="161"/>
       <c r="P8" s="161"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16">
       <c r="B9" s="160"/>
       <c r="C9" s="161"/>
       <c r="D9" s="161"/>
@@ -4681,7 +4731,7 @@
       <c r="O9" s="161"/>
       <c r="P9" s="161"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16">
       <c r="B10" s="160"/>
       <c r="C10" s="161"/>
       <c r="D10" s="161"/>
@@ -4698,7 +4748,7 @@
       <c r="O10" s="161"/>
       <c r="P10" s="161"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16">
       <c r="B11" s="160"/>
       <c r="C11" s="161"/>
       <c r="D11" s="161"/>
@@ -4715,7 +4765,7 @@
       <c r="O11" s="161"/>
       <c r="P11" s="161"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16">
       <c r="B12" s="160"/>
       <c r="C12" s="161"/>
       <c r="D12" s="161"/>
@@ -4732,7 +4782,7 @@
       <c r="O12" s="161"/>
       <c r="P12" s="161"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16">
       <c r="B13" s="160"/>
       <c r="C13" s="161"/>
       <c r="D13" s="161"/>
@@ -4749,7 +4799,7 @@
       <c r="O13" s="161"/>
       <c r="P13" s="161"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16">
       <c r="B14" s="160"/>
       <c r="C14" s="161"/>
       <c r="D14" s="161"/>
@@ -4766,7 +4816,7 @@
       <c r="O14" s="161"/>
       <c r="P14" s="161"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16">
       <c r="B15" s="160"/>
       <c r="C15" s="161"/>
       <c r="D15" s="161"/>
@@ -4783,7 +4833,7 @@
       <c r="O15" s="161"/>
       <c r="P15" s="161"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16">
       <c r="B16" s="160"/>
       <c r="C16" s="161"/>
       <c r="D16" s="161"/>
@@ -4800,7 +4850,7 @@
       <c r="O16" s="161"/>
       <c r="P16" s="161"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16">
       <c r="B17" s="160"/>
       <c r="C17" s="161"/>
       <c r="D17" s="161"/>
@@ -4817,7 +4867,7 @@
       <c r="O17" s="161"/>
       <c r="P17" s="161"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16">
       <c r="B18" s="160"/>
       <c r="C18" s="161"/>
       <c r="D18" s="161"/>
@@ -4834,7 +4884,7 @@
       <c r="O18" s="161"/>
       <c r="P18" s="161"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16">
       <c r="B19" s="160"/>
       <c r="C19" s="161"/>
       <c r="D19" s="161"/>
@@ -4851,7 +4901,7 @@
       <c r="O19" s="161"/>
       <c r="P19" s="161"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16">
       <c r="B20" s="160"/>
       <c r="C20" s="161"/>
       <c r="D20" s="161"/>
@@ -4868,7 +4918,7 @@
       <c r="O20" s="161"/>
       <c r="P20" s="161"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16">
       <c r="B21" s="160"/>
       <c r="C21" s="161"/>
       <c r="D21" s="161"/>
@@ -4885,7 +4935,7 @@
       <c r="O21" s="161"/>
       <c r="P21" s="161"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16">
       <c r="B22" s="160"/>
       <c r="C22" s="161"/>
       <c r="D22" s="161"/>
@@ -4902,7 +4952,7 @@
       <c r="O22" s="161"/>
       <c r="P22" s="161"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16">
       <c r="B23" s="160"/>
       <c r="C23" s="161"/>
       <c r="D23" s="161"/>
@@ -4919,7 +4969,7 @@
       <c r="O23" s="161"/>
       <c r="P23" s="161"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16">
       <c r="B24" s="160"/>
       <c r="C24" s="161"/>
       <c r="D24" s="161"/>
@@ -4936,7 +4986,7 @@
       <c r="O24" s="161"/>
       <c r="P24" s="161"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16">
       <c r="B25" s="160"/>
       <c r="C25" s="161"/>
       <c r="D25" s="161"/>
@@ -4944,7 +4994,7 @@
         <v>1500</v>
       </c>
       <c r="F25" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="161"/>
       <c r="H25" s="161"/>
@@ -4957,7 +5007,7 @@
       <c r="O25" s="161"/>
       <c r="P25" s="161"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16">
       <c r="B26" s="160"/>
       <c r="C26" s="161"/>
       <c r="D26" s="161"/>
@@ -4974,7 +5024,7 @@
       <c r="O26" s="161"/>
       <c r="P26" s="161"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16">
       <c r="B27" s="160"/>
       <c r="C27" s="161"/>
       <c r="D27" s="161"/>
@@ -4991,7 +5041,7 @@
       <c r="O27" s="161"/>
       <c r="P27" s="161"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16">
       <c r="B28" s="160"/>
       <c r="C28" s="161"/>
       <c r="D28" s="161"/>
@@ -5008,7 +5058,7 @@
       <c r="O28" s="161"/>
       <c r="P28" s="161"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16">
       <c r="B29" s="160"/>
       <c r="C29" s="161"/>
       <c r="D29" s="161"/>
@@ -5025,7 +5075,7 @@
       <c r="O29" s="161"/>
       <c r="P29" s="161"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16">
       <c r="B30" s="160"/>
       <c r="C30" s="161"/>
       <c r="D30" s="161"/>
@@ -5042,7 +5092,7 @@
       <c r="O30" s="161"/>
       <c r="P30" s="161"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16">
       <c r="B31" s="160"/>
       <c r="C31" s="161"/>
       <c r="D31" s="161"/>
@@ -5059,7 +5109,7 @@
       <c r="O31" s="161"/>
       <c r="P31" s="161"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16">
       <c r="B32" s="160"/>
       <c r="C32" s="161"/>
       <c r="D32" s="161"/>
@@ -5076,7 +5126,7 @@
       <c r="O32" s="161"/>
       <c r="P32" s="161"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16">
       <c r="B33" s="160"/>
       <c r="C33" s="161"/>
       <c r="D33" s="161"/>
@@ -5093,7 +5143,7 @@
       <c r="O33" s="161"/>
       <c r="P33" s="161"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16">
       <c r="B34" s="160"/>
       <c r="C34" s="161"/>
       <c r="D34" s="161"/>
@@ -5110,7 +5160,7 @@
       <c r="O34" s="161"/>
       <c r="P34" s="161"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16">
       <c r="B35" s="160"/>
       <c r="C35" s="161"/>
       <c r="D35" s="161"/>
@@ -5127,7 +5177,7 @@
       <c r="O35" s="161"/>
       <c r="P35" s="161"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16">
       <c r="B36" s="160"/>
       <c r="C36" s="161"/>
       <c r="D36" s="161"/>
@@ -5144,7 +5194,7 @@
       <c r="O36" s="161"/>
       <c r="P36" s="161"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16">
       <c r="B37" s="160"/>
       <c r="C37" s="161"/>
       <c r="D37" s="161"/>
@@ -5161,7 +5211,7 @@
       <c r="O37" s="161"/>
       <c r="P37" s="161"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16">
       <c r="B38" s="160"/>
       <c r="C38" s="161"/>
       <c r="D38" s="161"/>
@@ -5178,10 +5228,10 @@
       <c r="O38" s="161"/>
       <c r="P38" s="161"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16">
       <c r="B39" s="160"/>
       <c r="C39" s="161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="161"/>
       <c r="E39" s="161"/>
@@ -5197,7 +5247,7 @@
       <c r="O39" s="161"/>
       <c r="P39" s="161"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16">
       <c r="B40" s="160"/>
       <c r="C40" s="161"/>
       <c r="D40" s="161"/>
@@ -5214,7 +5264,7 @@
       <c r="O40" s="161"/>
       <c r="P40" s="161"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16">
       <c r="B41" s="160"/>
       <c r="C41" s="161"/>
       <c r="D41" s="161"/>
@@ -5231,7 +5281,7 @@
       <c r="O41" s="161"/>
       <c r="P41" s="161"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16">
       <c r="B42" s="160"/>
       <c r="C42" s="161"/>
       <c r="D42" s="161"/>
@@ -5248,7 +5298,7 @@
       <c r="O42" s="161"/>
       <c r="P42" s="161"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16">
       <c r="B43" s="160"/>
       <c r="C43" s="161"/>
       <c r="D43" s="161"/>
@@ -5265,7 +5315,7 @@
       <c r="O43" s="161"/>
       <c r="P43" s="161"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16">
       <c r="B44" s="160"/>
       <c r="C44" s="161"/>
       <c r="D44" s="161"/>
@@ -5282,7 +5332,7 @@
       <c r="O44" s="161"/>
       <c r="P44" s="161"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16">
       <c r="B45" s="160"/>
       <c r="C45" s="161"/>
       <c r="D45" s="161"/>
@@ -5299,7 +5349,7 @@
       <c r="O45" s="161"/>
       <c r="P45" s="161"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16">
       <c r="B46" s="160"/>
       <c r="C46" s="161"/>
       <c r="D46" s="161"/>
@@ -5316,7 +5366,7 @@
       <c r="O46" s="161"/>
       <c r="P46" s="161"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16">
       <c r="B47" s="160"/>
       <c r="C47" s="161"/>
       <c r="D47" s="161"/>
@@ -5333,7 +5383,7 @@
       <c r="O47" s="161"/>
       <c r="P47" s="161"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16">
       <c r="B48" s="160"/>
       <c r="C48" s="161"/>
       <c r="D48" s="161"/>
@@ -5350,7 +5400,7 @@
       <c r="O48" s="161"/>
       <c r="P48" s="161"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16">
       <c r="B49" s="160"/>
       <c r="C49" s="161"/>
       <c r="D49" s="161"/>
@@ -5367,7 +5417,7 @@
       <c r="O49" s="161"/>
       <c r="P49" s="161"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16">
       <c r="B50" s="160"/>
       <c r="C50" s="161"/>
       <c r="D50" s="161"/>
@@ -5384,7 +5434,7 @@
       <c r="O50" s="161"/>
       <c r="P50" s="161"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16">
       <c r="B51" s="160"/>
       <c r="C51" s="161"/>
       <c r="D51" s="161" t="s">
@@ -5394,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" s="161"/>
       <c r="H51" s="161"/>
@@ -5407,7 +5457,7 @@
       <c r="O51" s="161"/>
       <c r="P51" s="161"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16">
       <c r="B52" s="160"/>
       <c r="C52" s="161"/>
       <c r="D52" s="161"/>
@@ -5424,7 +5474,7 @@
       <c r="O52" s="161"/>
       <c r="P52" s="161"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16">
       <c r="B53" s="160"/>
       <c r="C53" s="161"/>
       <c r="D53" s="161"/>
@@ -5441,7 +5491,7 @@
       <c r="O53" s="161"/>
       <c r="P53" s="161"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16">
       <c r="B54" s="160"/>
       <c r="C54" s="161"/>
       <c r="D54" s="161"/>
@@ -5458,7 +5508,7 @@
       <c r="O54" s="161"/>
       <c r="P54" s="161"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16">
       <c r="B55" s="160"/>
       <c r="C55" s="161"/>
       <c r="D55" s="161"/>
@@ -5475,7 +5525,7 @@
       <c r="O55" s="161"/>
       <c r="P55" s="161"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16">
       <c r="B56" s="160"/>
       <c r="C56" s="161"/>
       <c r="D56" s="161"/>
@@ -5492,7 +5542,7 @@
       <c r="O56" s="161"/>
       <c r="P56" s="161"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16">
       <c r="B57" s="160"/>
       <c r="C57" s="161"/>
       <c r="D57" s="161"/>
@@ -5509,7 +5559,7 @@
       <c r="O57" s="161"/>
       <c r="P57" s="161"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16">
       <c r="B58" s="160"/>
       <c r="C58" s="161"/>
       <c r="D58" s="161"/>
@@ -5526,7 +5576,7 @@
       <c r="O58" s="161"/>
       <c r="P58" s="161"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16">
       <c r="B59" s="160"/>
       <c r="C59" s="161"/>
       <c r="D59" s="161"/>
@@ -5543,7 +5593,7 @@
       <c r="O59" s="161"/>
       <c r="P59" s="161"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16">
       <c r="B60" s="160"/>
       <c r="C60" s="161"/>
       <c r="D60" s="161"/>
@@ -5560,7 +5610,7 @@
       <c r="O60" s="161"/>
       <c r="P60" s="161"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16">
       <c r="B61" s="160"/>
       <c r="C61" s="161"/>
       <c r="D61" s="161"/>
@@ -5577,7 +5627,7 @@
       <c r="O61" s="161"/>
       <c r="P61" s="161"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16">
       <c r="B62" s="160"/>
       <c r="C62" s="161"/>
       <c r="D62" s="161"/>
@@ -5594,7 +5644,7 @@
       <c r="O62" s="161"/>
       <c r="P62" s="161"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16">
       <c r="B63" s="160"/>
       <c r="C63" s="161"/>
       <c r="D63" s="161"/>
@@ -5611,7 +5661,7 @@
       <c r="O63" s="161"/>
       <c r="P63" s="161"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16">
       <c r="B64" s="160"/>
       <c r="C64" s="161"/>
       <c r="D64" s="161"/>
@@ -5628,7 +5678,7 @@
       <c r="O64" s="161"/>
       <c r="P64" s="161"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16">
       <c r="B65" s="160"/>
       <c r="C65" s="161"/>
       <c r="D65" s="161"/>
@@ -5645,7 +5695,7 @@
       <c r="O65" s="161"/>
       <c r="P65" s="161"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16">
       <c r="B66" s="160"/>
       <c r="C66" s="161"/>
       <c r="D66" s="161"/>
@@ -5662,7 +5712,7 @@
       <c r="O66" s="161"/>
       <c r="P66" s="161"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16">
       <c r="B67" s="160"/>
       <c r="C67" s="161"/>
       <c r="D67" s="161"/>
@@ -5679,7 +5729,7 @@
       <c r="O67" s="161"/>
       <c r="P67" s="161"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16">
       <c r="B68" s="160"/>
       <c r="C68" s="161"/>
       <c r="D68" s="161"/>
@@ -5696,7 +5746,7 @@
       <c r="O68" s="161"/>
       <c r="P68" s="161"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16">
       <c r="B69" s="160"/>
       <c r="C69" s="161"/>
       <c r="D69" s="161"/>
@@ -5713,7 +5763,7 @@
       <c r="O69" s="161"/>
       <c r="P69" s="161"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16">
       <c r="B70" s="160"/>
       <c r="C70" s="161"/>
       <c r="D70" s="161"/>
@@ -5730,7 +5780,7 @@
       <c r="O70" s="161"/>
       <c r="P70" s="161"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16">
       <c r="B71" s="160"/>
       <c r="C71" s="161"/>
       <c r="D71" s="161"/>
@@ -5747,7 +5797,7 @@
       <c r="O71" s="161"/>
       <c r="P71" s="161"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16">
       <c r="B72" s="160"/>
       <c r="C72" s="161"/>
       <c r="D72" s="161"/>
@@ -5764,7 +5814,7 @@
       <c r="O72" s="161"/>
       <c r="P72" s="161"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16">
       <c r="B73" s="160"/>
       <c r="C73" s="161"/>
       <c r="D73" s="161"/>
@@ -5781,17 +5831,17 @@
       <c r="O73" s="161"/>
       <c r="P73" s="161"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16">
       <c r="B74" s="160"/>
       <c r="C74" s="161"/>
       <c r="D74" s="161" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" s="161">
         <v>35</v>
       </c>
       <c r="F74" s="161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G74" s="161"/>
       <c r="H74" s="161"/>
@@ -5804,11 +5854,11 @@
       <c r="O74" s="161"/>
       <c r="P74" s="161"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16">
       <c r="B75" s="160"/>
       <c r="C75" s="161"/>
       <c r="D75" s="161" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="161"/>
       <c r="F75" s="161"/>
@@ -5823,7 +5873,7 @@
       <c r="O75" s="161"/>
       <c r="P75" s="161"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16">
       <c r="B76" s="160"/>
       <c r="C76" s="161"/>
       <c r="D76" s="161"/>
@@ -5840,7 +5890,7 @@
       <c r="O76" s="161"/>
       <c r="P76" s="161"/>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16">
       <c r="B77" s="160"/>
       <c r="C77" s="161"/>
       <c r="D77" s="161"/>
@@ -5857,7 +5907,7 @@
       <c r="O77" s="161"/>
       <c r="P77" s="161"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16">
       <c r="B78" s="160"/>
       <c r="C78" s="161"/>
       <c r="D78" s="161"/>
@@ -5874,7 +5924,7 @@
       <c r="O78" s="161"/>
       <c r="P78" s="161"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16">
       <c r="B79" s="160"/>
       <c r="C79" s="161"/>
       <c r="D79" s="161"/>
@@ -5891,7 +5941,7 @@
       <c r="O79" s="161"/>
       <c r="P79" s="161"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16">
       <c r="B80" s="160"/>
       <c r="C80" s="161"/>
       <c r="D80" s="161"/>
@@ -5908,7 +5958,7 @@
       <c r="O80" s="161"/>
       <c r="P80" s="161"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16">
       <c r="B81" s="160"/>
       <c r="C81" s="161"/>
       <c r="D81" s="161"/>
@@ -5925,7 +5975,7 @@
       <c r="O81" s="161"/>
       <c r="P81" s="161"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16">
       <c r="B82" s="160"/>
       <c r="C82" s="161"/>
       <c r="D82" s="161"/>
@@ -5942,7 +5992,7 @@
       <c r="O82" s="161"/>
       <c r="P82" s="161"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16">
       <c r="B83" s="160"/>
       <c r="C83" s="161"/>
       <c r="D83" s="161"/>
@@ -5959,7 +6009,7 @@
       <c r="O83" s="161"/>
       <c r="P83" s="161"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16">
       <c r="B84" s="160"/>
       <c r="C84" s="161"/>
       <c r="D84" s="161"/>
@@ -5976,7 +6026,7 @@
       <c r="O84" s="161"/>
       <c r="P84" s="161"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16">
       <c r="B85" s="160"/>
       <c r="C85" s="161"/>
       <c r="D85" s="161"/>
@@ -5993,7 +6043,7 @@
       <c r="O85" s="161"/>
       <c r="P85" s="161"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16">
       <c r="B86" s="160"/>
       <c r="C86" s="161"/>
       <c r="D86" s="161"/>
@@ -6010,7 +6060,7 @@
       <c r="O86" s="161"/>
       <c r="P86" s="161"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16">
       <c r="B87" s="160"/>
       <c r="C87" s="161"/>
       <c r="D87" s="161"/>
@@ -6027,7 +6077,7 @@
       <c r="O87" s="161"/>
       <c r="P87" s="161"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16">
       <c r="B88" s="160"/>
       <c r="C88" s="161"/>
       <c r="D88" s="161"/>
@@ -6044,7 +6094,7 @@
       <c r="O88" s="161"/>
       <c r="P88" s="161"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16">
       <c r="B89" s="160"/>
       <c r="C89" s="161"/>
       <c r="D89" s="161"/>
@@ -6061,7 +6111,7 @@
       <c r="O89" s="161"/>
       <c r="P89" s="161"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16">
       <c r="B90" s="160"/>
       <c r="C90" s="161" t="s">
         <v>80</v>
@@ -6080,10 +6130,10 @@
       <c r="O90" s="161"/>
       <c r="P90" s="161"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16">
       <c r="B91" s="160"/>
       <c r="C91" s="161" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D91" s="161"/>
       <c r="E91" s="161"/>
@@ -6099,7 +6149,7 @@
       <c r="O91" s="161"/>
       <c r="P91" s="161"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16">
       <c r="B92" s="160"/>
       <c r="C92" s="161"/>
       <c r="D92" s="161"/>
@@ -6116,7 +6166,7 @@
       <c r="O92" s="161"/>
       <c r="P92" s="161"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16">
       <c r="B93" s="160"/>
       <c r="C93" s="161"/>
       <c r="D93" s="161"/>
@@ -6124,7 +6174,7 @@
         <v>1600</v>
       </c>
       <c r="F93" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93" s="161"/>
       <c r="H93" s="161"/>
@@ -6137,7 +6187,7 @@
       <c r="O93" s="161"/>
       <c r="P93" s="161"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16">
       <c r="B94" s="160"/>
       <c r="C94" s="161"/>
       <c r="D94" s="161"/>
@@ -6154,7 +6204,7 @@
       <c r="O94" s="161"/>
       <c r="P94" s="161"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16">
       <c r="B95" s="160"/>
       <c r="C95" s="161"/>
       <c r="D95" s="161"/>
@@ -6171,7 +6221,7 @@
       <c r="O95" s="161"/>
       <c r="P95" s="161"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16">
       <c r="B96" s="160"/>
       <c r="C96" s="161"/>
       <c r="D96" s="161"/>
@@ -6188,7 +6238,7 @@
       <c r="O96" s="161"/>
       <c r="P96" s="161"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16">
       <c r="B97" s="160"/>
       <c r="C97" s="161"/>
       <c r="D97" s="161"/>
@@ -6205,7 +6255,7 @@
       <c r="O97" s="161"/>
       <c r="P97" s="161"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16">
       <c r="B98" s="160"/>
       <c r="C98" s="161"/>
       <c r="D98" s="161"/>
@@ -6222,7 +6272,7 @@
       <c r="O98" s="161"/>
       <c r="P98" s="161"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16">
       <c r="B99" s="160"/>
       <c r="C99" s="161"/>
       <c r="D99" s="161"/>
@@ -6239,7 +6289,7 @@
       <c r="O99" s="161"/>
       <c r="P99" s="161"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16">
       <c r="B100" s="160"/>
       <c r="C100" s="161"/>
       <c r="D100" s="161"/>
@@ -6256,7 +6306,7 @@
       <c r="O100" s="161"/>
       <c r="P100" s="161"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16">
       <c r="B101" s="160"/>
       <c r="C101" s="161"/>
       <c r="D101" s="161"/>
@@ -6273,7 +6323,7 @@
       <c r="O101" s="161"/>
       <c r="P101" s="161"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:16">
       <c r="B102" s="160"/>
       <c r="C102" s="161"/>
       <c r="D102" s="161"/>
@@ -6290,7 +6340,7 @@
       <c r="O102" s="161"/>
       <c r="P102" s="161"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:16">
       <c r="B103" s="160"/>
       <c r="C103" s="161"/>
       <c r="D103" s="161"/>
@@ -6307,7 +6357,7 @@
       <c r="O103" s="161"/>
       <c r="P103" s="161"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:16">
       <c r="B104" s="160"/>
       <c r="C104" s="161"/>
       <c r="D104" s="161"/>
@@ -6324,7 +6374,7 @@
       <c r="O104" s="161"/>
       <c r="P104" s="161"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:16">
       <c r="B105" s="160"/>
       <c r="C105" s="161"/>
       <c r="D105" s="161"/>
@@ -6341,7 +6391,7 @@
       <c r="O105" s="161"/>
       <c r="P105" s="161"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16">
       <c r="B106" s="160"/>
       <c r="C106" s="161"/>
       <c r="D106" s="161"/>
@@ -6358,7 +6408,7 @@
       <c r="O106" s="161"/>
       <c r="P106" s="161"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16">
       <c r="B107" s="160"/>
       <c r="C107" s="161"/>
       <c r="D107" s="161"/>
@@ -6375,7 +6425,7 @@
       <c r="O107" s="161"/>
       <c r="P107" s="161"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16">
       <c r="B108" s="160"/>
       <c r="C108" s="161"/>
       <c r="D108" s="161"/>
@@ -6392,7 +6442,7 @@
       <c r="O108" s="161"/>
       <c r="P108" s="161"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16">
       <c r="B109" s="160"/>
       <c r="C109" s="161"/>
       <c r="D109" s="161"/>
@@ -6409,7 +6459,7 @@
       <c r="O109" s="161"/>
       <c r="P109" s="161"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16">
       <c r="B110" s="160"/>
       <c r="C110" s="161"/>
       <c r="D110" s="161"/>
@@ -6426,7 +6476,7 @@
       <c r="O110" s="161"/>
       <c r="P110" s="161"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16">
       <c r="B111" s="160"/>
       <c r="C111" s="161"/>
       <c r="D111" s="161"/>
@@ -6443,7 +6493,7 @@
       <c r="O111" s="161"/>
       <c r="P111" s="161"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16">
       <c r="B112" s="160"/>
       <c r="C112" s="161" t="s">
         <v>73</v>
@@ -6462,10 +6512,10 @@
       <c r="O112" s="161"/>
       <c r="P112" s="161"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16">
       <c r="B113" s="160"/>
       <c r="C113" s="161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="161"/>
       <c r="E113" s="161"/>
@@ -6481,7 +6531,7 @@
       <c r="O113" s="161"/>
       <c r="P113" s="161"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16">
       <c r="B114" s="160"/>
       <c r="C114" s="161"/>
       <c r="D114" s="161"/>
@@ -6498,7 +6548,7 @@
       <c r="O114" s="161"/>
       <c r="P114" s="161"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16">
       <c r="B115" s="160"/>
       <c r="C115" s="161"/>
       <c r="D115" s="161"/>
@@ -6515,7 +6565,7 @@
       <c r="O115" s="161"/>
       <c r="P115" s="161"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16">
       <c r="B116" s="160"/>
       <c r="C116" s="161"/>
       <c r="D116" s="161"/>
@@ -6532,7 +6582,7 @@
       <c r="O116" s="161"/>
       <c r="P116" s="161"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:16">
       <c r="B117" s="160"/>
       <c r="C117" s="161"/>
       <c r="D117" s="161"/>
@@ -6549,7 +6599,7 @@
       <c r="O117" s="161"/>
       <c r="P117" s="161"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:16">
       <c r="B118" s="160"/>
       <c r="C118" s="161"/>
       <c r="D118" s="161"/>
@@ -6566,7 +6616,7 @@
       <c r="O118" s="161"/>
       <c r="P118" s="161"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:16">
       <c r="B119" s="160"/>
       <c r="C119" s="161"/>
       <c r="D119" s="161"/>
@@ -6583,7 +6633,7 @@
       <c r="O119" s="161"/>
       <c r="P119" s="161"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:16">
       <c r="B120" s="160"/>
       <c r="C120" s="161"/>
       <c r="D120" s="161"/>
@@ -6600,7 +6650,7 @@
       <c r="O120" s="161"/>
       <c r="P120" s="161"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:16">
       <c r="B121" s="160"/>
       <c r="C121" s="161"/>
       <c r="D121" s="161"/>
@@ -6617,7 +6667,7 @@
       <c r="O121" s="161"/>
       <c r="P121" s="161"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:16">
       <c r="B122" s="160"/>
       <c r="C122" s="161"/>
       <c r="D122" s="161"/>
@@ -6634,7 +6684,7 @@
       <c r="O122" s="161"/>
       <c r="P122" s="161"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:16">
       <c r="B123" s="160"/>
       <c r="C123" s="161"/>
       <c r="D123" s="161"/>
@@ -6651,7 +6701,7 @@
       <c r="O123" s="161"/>
       <c r="P123" s="161"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:16">
       <c r="B124" s="160"/>
       <c r="C124" s="161"/>
       <c r="D124" s="161"/>
@@ -6659,7 +6709,7 @@
         <v>35</v>
       </c>
       <c r="F124" s="161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G124" s="161"/>
       <c r="H124" s="161"/>
@@ -6672,7 +6722,7 @@
       <c r="O124" s="161"/>
       <c r="P124" s="161"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16">
       <c r="B125" s="160"/>
       <c r="C125" s="161"/>
       <c r="D125" s="161"/>
@@ -6680,7 +6730,7 @@
         <v>1400</v>
       </c>
       <c r="F125" s="161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G125" s="161"/>
       <c r="H125" s="161"/>
@@ -6693,7 +6743,7 @@
       <c r="O125" s="161"/>
       <c r="P125" s="161"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:16">
       <c r="B126" s="160"/>
       <c r="C126" s="161"/>
       <c r="D126" s="161"/>
@@ -6710,7 +6760,7 @@
       <c r="O126" s="161"/>
       <c r="P126" s="161"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:16">
       <c r="B127" s="160"/>
       <c r="C127" s="161"/>
       <c r="D127" s="161"/>
@@ -6727,7 +6777,7 @@
       <c r="O127" s="161"/>
       <c r="P127" s="161"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:16">
       <c r="B128" s="160"/>
       <c r="C128" s="161"/>
       <c r="D128" s="161"/>
@@ -6744,7 +6794,7 @@
       <c r="O128" s="161"/>
       <c r="P128" s="161"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:16">
       <c r="B129" s="160"/>
       <c r="C129" s="161"/>
       <c r="D129" s="161"/>
@@ -6761,7 +6811,7 @@
       <c r="O129" s="161"/>
       <c r="P129" s="161"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:16">
       <c r="B130" s="160"/>
       <c r="C130" s="161"/>
       <c r="D130" s="161"/>
@@ -6778,7 +6828,7 @@
       <c r="O130" s="161"/>
       <c r="P130" s="161"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:16">
       <c r="B131" s="160"/>
       <c r="C131" s="161"/>
       <c r="D131" s="161"/>
@@ -6795,7 +6845,7 @@
       <c r="O131" s="161"/>
       <c r="P131" s="161"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:16">
       <c r="B132" s="160"/>
       <c r="C132" s="161"/>
       <c r="D132" s="161"/>
@@ -6812,7 +6862,7 @@
       <c r="O132" s="161"/>
       <c r="P132" s="161"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:16">
       <c r="B133" s="160"/>
       <c r="C133" s="161"/>
       <c r="D133" s="161"/>
@@ -6829,7 +6879,7 @@
       <c r="O133" s="161"/>
       <c r="P133" s="161"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:16">
       <c r="B134" s="160"/>
       <c r="C134" s="161"/>
       <c r="D134" s="161"/>
@@ -6846,7 +6896,7 @@
       <c r="O134" s="161"/>
       <c r="P134" s="161"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:16">
       <c r="B135" s="160"/>
       <c r="C135" s="161"/>
       <c r="D135" s="161"/>
@@ -6863,7 +6913,7 @@
       <c r="O135" s="161"/>
       <c r="P135" s="161"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:16">
       <c r="B136" s="160"/>
       <c r="C136" s="161"/>
       <c r="D136" s="161"/>
@@ -6880,7 +6930,7 @@
       <c r="O136" s="161"/>
       <c r="P136" s="161"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:16">
       <c r="B137" s="160"/>
       <c r="C137" s="161"/>
       <c r="D137" s="161"/>
@@ -6897,7 +6947,7 @@
       <c r="O137" s="161"/>
       <c r="P137" s="161"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:16">
       <c r="B138" s="160"/>
       <c r="C138" s="161"/>
       <c r="D138" s="161"/>
@@ -6914,7 +6964,7 @@
       <c r="O138" s="161"/>
       <c r="P138" s="161"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:16">
       <c r="B139" s="160"/>
       <c r="C139" s="161"/>
       <c r="D139" s="161"/>
@@ -6931,7 +6981,7 @@
       <c r="O139" s="161"/>
       <c r="P139" s="161"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:16">
       <c r="B140" s="160"/>
       <c r="C140" s="161"/>
       <c r="D140" s="161"/>
@@ -6948,7 +6998,7 @@
       <c r="O140" s="161"/>
       <c r="P140" s="161"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:16">
       <c r="B141" s="160"/>
       <c r="C141" s="161"/>
       <c r="D141" s="161"/>
@@ -6965,7 +7015,7 @@
       <c r="O141" s="161"/>
       <c r="P141" s="161"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:16">
       <c r="B142" s="160"/>
       <c r="C142" s="161"/>
       <c r="D142" s="161"/>
@@ -6982,7 +7032,7 @@
       <c r="O142" s="161"/>
       <c r="P142" s="161"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:16">
       <c r="B143" s="160"/>
       <c r="C143" s="161"/>
       <c r="D143" s="161"/>
@@ -6999,7 +7049,7 @@
       <c r="O143" s="161"/>
       <c r="P143" s="161"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:16">
       <c r="B144" s="160"/>
       <c r="C144" s="161"/>
       <c r="D144" s="161"/>
@@ -7016,7 +7066,7 @@
       <c r="O144" s="161"/>
       <c r="P144" s="161"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:16">
       <c r="B145" s="160"/>
       <c r="C145" s="161"/>
       <c r="D145" s="161"/>

--- a/nodes_source_analyses/energy/energy_power_ultra_supercritical_lignite.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_ultra_supercritical_lignite.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C683977-864C-DA4F-AB09-33214634D0C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA77E3B4-2EA9-B347-8828-00931CC8C345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="147">
   <si>
     <t>Source</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>input.torrefied_biomass_pellets</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1477,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1786,6 +1789,7 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="236">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2705,12 +2709,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2884,23 +2888,23 @@
   </sheetPr>
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
     <col min="9" max="9" width="45" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3367,15 +3371,15 @@
         <v>3</v>
       </c>
       <c r="E29" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="33"/>
-      <c r="I29" s="31" t="s">
-        <v>56</v>
+      <c r="I29" s="171" t="s">
+        <v>146</v>
       </c>
       <c r="J29" s="147"/>
     </row>
@@ -3657,27 +3661,27 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="71" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="71" customWidth="1"/>
     <col min="2" max="2" width="4" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="71" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="72" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="72" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="72" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="72" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="72" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="72" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="72" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="72" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="72" customWidth="1"/>
     <col min="16" max="16" width="10" style="72" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="72" customWidth="1"/>
-    <col min="18" max="18" width="91.1640625" style="71" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="71"/>
+    <col min="17" max="17" width="2.7109375" style="72" customWidth="1"/>
+    <col min="18" max="18" width="91.140625" style="71" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -4225,17 +4229,17 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="47" customWidth="1"/>
-    <col min="11" max="11" width="83.83203125" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="46"/>
+    <col min="1" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="83.85546875" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4579,11 +4583,11 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="153" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="153"/>
+    <col min="1" max="1" width="5.42578125" style="153" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="153" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="153"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
